--- a/biology/Botanique/Marais_des_Trois_Vaches/Marais_des_Trois_Vaches.xlsx
+++ b/biology/Botanique/Marais_des_Trois_Vaches/Marais_des_Trois_Vaches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Marais des Trois Vaches est un espace vert situé à l’est de la ville d’Amiens au voisinage des communes de Longueau et de Cagny.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'au XIXe siècle, l'exploitation de la tourbe a nécessité le creusement par l'homme d'étangs. Jusque dans les années 1950, les prairies humides étaient louées à des agriculteurs et à des maraîchers ; les étangs à des sociétés de pêche. La ville d'Amiens propriétaire du site l'a aménagé en espace naturel de loisirs.
 Le 18 décembre 2017, le marais des Trois Vaches été inclus dans le site Ramsar : Marais et tourbières des vallées de la Somme et de l'Avre.
@@ -543,12 +557,50 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marais de Trois Vaches est composé d’un ensemble de milieux, aquatiques, amphibies et terrestres. Il est situé dans la vallée de l’Avre avant sa confluence avec celle de la Somme. Les étangs ont été formés par l’exploitation de tourbières qui sont en cours d’envasement. Ces marais tourbeux alcalins sont en cours de reboisement.
-Sur les parties envasées la végétation se compose de mégaphorbiaies, de roselières eutrophes, de saules cendrés, peupliers[1].
-Les étangs sont en cours d'envasement par l’arrivée d’eaux du réseau pluvial. Sur les parties envasées prospèrent des mégaphorbiaies, des roselières eutrophes, de saulaies à saule cendré. Sur les parties terrestres se trouvent des peupleraies[2].
-Flore
+Sur les parties envasées la végétation se compose de mégaphorbiaies, de roselières eutrophes, de saules cendrés, peupliers.
+Les étangs sont en cours d'envasement par l’arrivée d’eaux du réseau pluvial. Sur les parties envasées prospèrent des mégaphorbiaies, des roselières eutrophes, de saulaies à saule cendré. Sur les parties terrestres se trouvent des peupleraies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marais_des_Trois_Vaches</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_des_Trois_Vaches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 roselière
 douce amère
 épilobe hirsute
@@ -572,9 +624,44 @@
 frêne commun
 clématite vigne blanche
 peuplier hybride
-marronnier[3]
-Faune
-98 espèces d'oiseaux parmi lesquelles :
+marronnier
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marais_des_Trois_Vaches</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_des_Trois_Vaches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">98 espèces d'oiseaux parmi lesquelles :
 bécassine des marais
 bergeronnette grise
 canard colvert
@@ -596,36 +683,38 @@
 pinson des arbres
 rouge-gorge
 sarcelle d'hiver
-tarin des aulnes[3],[4]
+tarin des aulnes,
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Marais_des_Trois_Vaches</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marais_des_Trois_Vaches</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Pour approfondir</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
